--- a/logoform.xlsx
+++ b/logoform.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishiura-air-m2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishiura-air-m2/Desktop/[gitローカル]/申請/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABCE333-CC78-7C4D-8AA4-841E4EDA9642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452E8DC8-D020-224C-92ED-3ADB0C57D0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2960" yWindow="660" windowWidth="22640" windowHeight="15320" xr2:uid="{5683F27C-9861-C541-9229-AF3CAAC0A7D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -75,6 +75,51 @@
   <si>
     <t>https://logoform.jp/f/T64Xk/1145073?key=3af8caf1f2bb0014b0c9b046d1e376f7b8065170617264317f71b981444e9be9</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーダー研修会2</t>
+  </si>
+  <si>
+    <t>リーダー研修会3</t>
+  </si>
+  <si>
+    <t>リーダー研修会4</t>
+  </si>
+  <si>
+    <t>リーダー研修会5</t>
+  </si>
+  <si>
+    <t>リーダー研修会6</t>
+  </si>
+  <si>
+    <t>リーダー研修会7</t>
+  </si>
+  <si>
+    <t>リーダー研修会8</t>
+  </si>
+  <si>
+    <t>リーダー研修会9</t>
+  </si>
+  <si>
+    <t>リーダー研修会10</t>
+  </si>
+  <si>
+    <t>リーダー研修会11</t>
+  </si>
+  <si>
+    <t>リーダー研修会12</t>
+  </si>
+  <si>
+    <t>リーダー研修会13</t>
+  </si>
+  <si>
+    <t>リーダー研修会14</t>
+  </si>
+  <si>
+    <t>リーダー研修会15</t>
+  </si>
+  <si>
+    <t>リーダー研修会16</t>
   </si>
 </sst>
 </file>
@@ -463,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0C3207-7249-EF41-BF5E-5679FA27897E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A11" sqref="A11:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -507,6 +552,126 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
